--- a/Zeit/Zeit-benötigt.xlsx
+++ b/Zeit/Zeit-benötigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Website-files\Zeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF54E2-513D-4030-91FF-DCC97384C803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1197C-2BBE-4CE1-B913-30DA0C58E63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{46A40871-49FF-43E0-B9B3-2E2BD24E7188}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,103 +649,121 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C15" s="3">
         <v>43970</v>
       </c>
       <c r="D15" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
+        <v>7.638888888888884E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43970</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
+        <v>0.14583333333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43971</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
+        <v>9.027777777777779E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>43972</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
-        <v>43971</v>
-      </c>
-      <c r="D16" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>43973</v>
+      </c>
+      <c r="D19" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
-        <v>43972</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>43974</v>
+      </c>
+      <c r="D20" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
-        <v>43973</v>
-      </c>
-      <c r="D18" s="1">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>43975</v>
+      </c>
+      <c r="D21" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
-        <v>43974</v>
-      </c>
-      <c r="D19" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>43976</v>
+      </c>
+      <c r="D22" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
         <v>0</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
-        <v>43975</v>
-      </c>
-      <c r="D20" s="1">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>43977</v>
+      </c>
+      <c r="D23" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
-        <v>43976</v>
-      </c>
-      <c r="D21" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>43978</v>
+      </c>
+      <c r="D24" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
-        <v>43977</v>
-      </c>
-      <c r="D22" s="1">
-        <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
-        <v>43978</v>
-      </c>
-      <c r="D23" s="1">
-        <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
-        <v>43979</v>
-      </c>
-      <c r="D24" s="1">
-        <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <f>SUM(Tabelle1[[#Data],[#Totals],[Stunden]])</f>
-        <v>1.0138888888888888</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1.3263888888888888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>4</v>
       </c>

--- a/Zeit/Zeit-benötigt.xlsx
+++ b/Zeit/Zeit-benötigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Website-files\Zeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F1197C-2BBE-4CE1-B913-30DA0C58E63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0A0AA-C6A8-4692-BB92-9464855342E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{46A40871-49FF-43E0-B9B3-2E2BD24E7188}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,58 +694,94 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="C18" s="3">
         <v>43972</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C19" s="3">
         <v>43973</v>
       </c>
       <c r="D19" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="C20" s="3">
         <v>43974</v>
       </c>
       <c r="D20" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="C21" s="3">
         <v>43975</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>9.0277777777777679E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="C22" s="3">
         <v>43976</v>
       </c>
       <c r="D22" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="C23" s="3">
         <v>43977</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,7 +796,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <f>SUM(Tabelle1[[#Data],[#Totals],[Stunden]])</f>
-        <v>1.3263888888888888</v>
+        <v>1.7256944444444442</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/Zeit/Zeit-benötigt.xlsx
+++ b/Zeit/Zeit-benötigt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Website-files\Zeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8085EA6F-4EB7-4BC7-AE21-5D4AD074441F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B47E3-858B-4FB7-B7AC-BFDF6F6A005D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
     <t>Stunden</t>
   </si>
   <si>
-    <t>1*24</t>
+    <t>2*24</t>
   </si>
 </sst>
 </file>
@@ -101,13 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:D31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:D32">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Von"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Bis"/>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,72 +908,88 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="B28" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C28" s="3">
         <v>43992</v>
       </c>
       <c r="D28" s="2">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B29" s="2">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="C29" s="3">
         <v>43993</v>
       </c>
       <c r="D29" s="2">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="B30" s="2">
-        <v>0</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C30" s="3">
         <v>43994</v>
       </c>
       <c r="D30" s="2">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="C31" s="3">
         <v>43995</v>
       </c>
       <c r="D31" s="2">
         <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43997</v>
+      </c>
       <c r="D32" s="2">
+        <f>SUM(Tabelle1[[#This Row],[Bis]]-Tabelle1[[#This Row],[Von]])</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="2">
         <f>SUM(Tabelle1[[#Data],[#Totals],[Stunden]])</f>
-        <v>1.9097222222222241</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+        <v>2.0034722222222241</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>4</v>
       </c>
     </row>
